--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_3418.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_3418.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3418</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>William Thomas Stuart Porterfield</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2498</t>
+          <t>2498</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2503</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2599</t>
+          <t>2599</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2601</t>
+          <t>2601</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2606</t>
+          <t>2606</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2610</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2616</t>
+          <t>2616</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +932,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2642</t>
+          <t>2642</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +984,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2646</t>
+          <t>2646</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -971,7 +1036,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2658</t>
+          <t>2658</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1023,7 +1088,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2665</t>
+          <t>2665</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1075,7 +1140,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2669</t>
+          <t>2669</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1127,7 +1192,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2673</t>
+          <t>2673</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1179,7 +1244,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2677</t>
+          <t>2677</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1231,7 +1296,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2679</t>
+          <t>2679</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1283,7 +1348,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2682</t>
+          <t>2682</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1335,7 +1400,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2698</t>
+          <t>2698</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1387,7 +1452,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2699</t>
+          <t>2699</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1439,7 +1504,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2714</t>
+          <t>2714</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1491,7 +1556,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2715</t>
+          <t>2715</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1543,7 +1608,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2805</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1595,7 +1660,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2806</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1647,7 +1712,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2807</t>
+          <t>2807</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1699,7 +1764,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2849</t>
+          <t>2849</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1751,7 +1816,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2851</t>
+          <t>2851</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1803,7 +1868,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2866</t>
+          <t>2866</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1855,7 +1920,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2868</t>
+          <t>2868</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1907,7 +1972,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2883</t>
+          <t>2883</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1959,7 +2024,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2884</t>
+          <t>2884</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2011,7 +2076,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2952</t>
+          <t>2952</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2063,7 +2128,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2958</t>
+          <t>2958</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2115,7 +2180,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2965</t>
+          <t>2965</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2167,7 +2232,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2981</t>
+          <t>2981</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2219,7 +2284,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2983</t>
+          <t>2983</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2271,7 +2336,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2984</t>
+          <t>2984</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2323,7 +2388,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3001</t>
+          <t>3001</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2375,7 +2440,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3005</t>
+          <t>3005</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2427,7 +2492,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3108</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2479,7 +2544,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3124</t>
+          <t>3124</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2531,7 +2596,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3157</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2583,7 +2648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3158</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2635,7 +2700,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3179</t>
+          <t>3179</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2687,7 +2752,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3180</t>
+          <t>3180</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2739,7 +2804,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3181</t>
+          <t>3181</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2791,7 +2856,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3243</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2843,7 +2908,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3249</t>
+          <t>3249</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2895,7 +2960,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3256</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2947,7 +3012,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3261</t>
+          <t>3261</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2999,7 +3064,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3268</t>
+          <t>3268</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3051,7 +3116,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3271</t>
+          <t>3271</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3103,7 +3168,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3292</t>
+          <t>3292</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3155,7 +3220,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3293</t>
+          <t>3293</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3207,7 +3272,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3307</t>
+          <t>3307</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3259,7 +3324,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3321</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3311,7 +3376,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3332</t>
+          <t>3332</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3363,7 +3428,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3333</t>
+          <t>3333</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3415,7 +3480,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3378</t>
+          <t>3378</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3467,7 +3532,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3381</t>
+          <t>3381</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3519,7 +3584,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3416</t>
+          <t>3416</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3571,7 +3636,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3421</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3623,7 +3688,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3499</t>
+          <t>3499</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3675,7 +3740,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3500</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3727,7 +3792,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3526</t>
+          <t>3526</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3779,7 +3844,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3528</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3831,7 +3896,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3551</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3883,7 +3948,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3554</t>
+          <t>3554</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3935,7 +4000,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3556</t>
+          <t>3556</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3987,7 +4052,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3617</t>
+          <t>3617</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4039,7 +4104,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3635</t>
+          <t>3635</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4091,7 +4156,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4143,7 +4208,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3724</t>
+          <t>3724</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4195,7 +4260,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4235,7 +4300,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -4243,7 +4307,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3733</t>
+          <t>3733</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4295,7 +4359,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4347,7 +4411,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3763</t>
+          <t>3763</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4399,7 +4463,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3771</t>
+          <t>3771</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4451,7 +4515,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3777</t>
+          <t>3777</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4503,7 +4567,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4555,7 +4619,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3789</t>
+          <t>3789</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4607,7 +4671,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3800</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4659,7 +4723,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3829</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4711,7 +4775,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3839</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4763,7 +4827,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3840</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4815,7 +4879,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3842</t>
+          <t>3842</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4867,7 +4931,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3901</t>
+          <t>3901</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4919,7 +4983,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3902</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4971,7 +5035,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5023,7 +5087,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5075,7 +5139,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3917</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5127,7 +5191,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5179,7 +5243,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5231,7 +5295,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3935</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5283,7 +5347,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3937</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5335,7 +5399,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5387,7 +5451,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4003</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5439,7 +5503,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5491,7 +5555,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5543,7 +5607,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5595,7 +5659,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5647,7 +5711,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4010</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5699,7 +5763,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5751,7 +5815,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5791,7 +5855,6 @@
           <t>103</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -5799,7 +5862,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5851,7 +5914,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4023</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5903,7 +5966,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5955,7 +6018,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4026</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -6007,7 +6070,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6059,7 +6122,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6111,7 +6174,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6163,7 +6226,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4106</t>
+          <t>4106</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6215,7 +6278,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4107</t>
+          <t>4107</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6267,7 +6330,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6319,7 +6382,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6371,7 +6434,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4143</t>
+          <t>4143</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6423,7 +6486,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4150</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6475,7 +6538,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4152</t>
+          <t>4152</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6527,7 +6590,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4156</t>
+          <t>4156</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6579,7 +6642,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6631,7 +6694,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6683,7 +6746,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4189</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6735,7 +6798,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6787,7 +6850,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6839,7 +6902,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6879,7 +6942,6 @@
           <t>124</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -6887,7 +6949,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4259</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6939,7 +7001,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6991,7 +7053,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7043,7 +7105,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7095,7 +7157,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7147,7 +7209,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7199,7 +7261,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7251,7 +7313,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7303,7 +7365,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7355,7 +7417,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7407,7 +7469,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4343</t>
+          <t>4343</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7459,7 +7521,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4347</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7511,7 +7573,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4352</t>
+          <t>4352</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7563,7 +7625,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7615,7 +7677,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7667,7 +7729,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7719,7 +7781,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4466</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7771,7 +7833,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4467</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7823,7 +7885,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4474</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7875,7 +7937,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4492</t>
+          <t>4492</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7927,7 +7989,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4494</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7979,7 +8041,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4496</t>
+          <t>4496</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8031,7 +8093,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8083,7 +8145,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8135,7 +8197,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8166,6 +8228,569 @@
       <c r="J149" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6.49%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4291</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.92%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4295</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.24%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10.61%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4343</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2.33%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4347</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8.26%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4352</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8.33%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4394</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12.24%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4397</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4.93%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2.58%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>32.89%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4494</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4496</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13.56%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15.48%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_3418.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_3418.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4300,6 +4299,7 @@
           <t>73</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -5855,6 +5855,7 @@
           <t>103</t>
         </is>
       </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
           <t>12/05/2017</t>
@@ -5867,7 +5868,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -6942,6 +6943,7 @@
           <t>124</t>
         </is>
       </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -6954,7 +6956,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -8228,569 +8230,6 @@
       <c r="J149" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4285</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>6.49%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4291</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.92%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4295</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4299</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>25.24%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4301</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>10.61%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4343</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.33%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4347</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>8.26%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4352</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4391</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.33%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4394</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>12.24%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4397</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.93%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4466</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.58%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4467</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4492</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>32.89%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4494</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4496</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>13.56%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>15.48%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
